--- a/Excel/Excel API Automation Data.xlsx
+++ b/Excel/Excel API Automation Data.xlsx
@@ -8,35 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdul Aziz Chowdhury\Katalon Studio\Excel Consent\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C276A652-FB45-4CE1-8065-A6FA742787F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B72B409-F571-4987-B64B-40A01F1CE744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="2" activeTab="6" xr2:uid="{928A996F-D9C1-44AA-802B-7CB5EE01B7A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="5" activeTab="7" xr2:uid="{928A996F-D9C1-44AA-802B-7CB5EE01B7A6}"/>
   </bookViews>
   <sheets>
-    <sheet name=" Excel auth token Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Get Excel Users Test" sheetId="2" r:id="rId2"/>
-    <sheet name="Add User Test" sheetId="3" r:id="rId3"/>
-    <sheet name="GetExcelUsersAfterAddingData" sheetId="4" r:id="rId4"/>
-    <sheet name="UpdateUserTest" sheetId="5" r:id="rId5"/>
-    <sheet name="DeleteUserNotExistTest" sheetId="20" r:id="rId6"/>
-    <sheet name="DeleteUserTest" sheetId="6" r:id="rId7"/>
-    <sheet name="DeleteUserWithUpperCaseTest" sheetId="21" r:id="rId8"/>
-    <sheet name="getExcelUsersAfterDeleteUserTes" sheetId="8" r:id="rId9"/>
-    <sheet name="ExecuteRecTest" sheetId="7" r:id="rId10"/>
-    <sheet name="Execute CS_FAS Test" sheetId="24" r:id="rId11"/>
-    <sheet name="Execute CS_CRL Test" sheetId="23" r:id="rId12"/>
-    <sheet name="Execute CS_CQS Test" sheetId="22" r:id="rId13"/>
-    <sheet name="Execute CS Credit View" sheetId="9" r:id="rId14"/>
-    <sheet name="Execute CS_CSview Test" sheetId="10" r:id="rId15"/>
-    <sheet name="Execute CS_Businessprofile Test" sheetId="11" r:id="rId16"/>
-    <sheet name="Execute CS_CSview Test Copy" sheetId="13" r:id="rId17"/>
-    <sheet name="Execute CS_RisksAndCatalysts" sheetId="14" r:id="rId18"/>
-    <sheet name="Execute CS Table Test" sheetId="15" r:id="rId19"/>
-    <sheet name="Execute rec without access" sheetId="16" r:id="rId20"/>
-    <sheet name="Execute CS_CSview without acces" sheetId="17" r:id="rId21"/>
-    <sheet name="Excelauthtokenforbenakeinvalid" sheetId="25" r:id="rId22"/>
-    <sheet name="Excel auth token for benake" sheetId="18" r:id="rId23"/>
-    <sheet name="Excel permission Test" sheetId="19" r:id="rId24"/>
+    <sheet name="aSales data" sheetId="27" r:id="rId1"/>
+    <sheet name="wildcat data" sheetId="28" r:id="rId2"/>
+    <sheet name="Execute CS Credit View" sheetId="9" r:id="rId3"/>
+    <sheet name="Execute CS_CSview Test" sheetId="10" r:id="rId4"/>
+    <sheet name="Execute CS_Businessprofile Test" sheetId="11" r:id="rId5"/>
+    <sheet name="Execute CS_CSview Test Copy" sheetId="13" r:id="rId6"/>
+    <sheet name="Execute CS_RisksAndCatalysts" sheetId="14" r:id="rId7"/>
+    <sheet name="Benake data" sheetId="29" r:id="rId8"/>
+    <sheet name="Excelauthtokenforbenakeinvalid" sheetId="25" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -114,9 +99,6 @@
   </si>
   <si>
     <t>benke</t>
-  </si>
-  <si>
-    <t>park4703</t>
   </si>
 </sst>
 </file>
@@ -515,11 +497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094EAE2F-8882-4C6F-8278-0F8167806A37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C0957E-31E4-4C83-AEE9-45E268D8AB0C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,33 +530,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B0FC23-ED06-4E77-9E1E-211E10A43F92}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88798DF4-BF08-4730-AFA9-F96757F35B17}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -582,114 +579,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC62621-A5F6-4038-A4C7-CD6407F6F0D5}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264F90FE-1939-47C0-BA03-E81E9B79A74D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C80FD6-84D6-4844-8926-DDFCC42CD53A}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC3F7F-D11B-4233-999F-16ECBF7AC689}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D491127-AA48-4BCC-99C4-73DDAFCF1BEE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -768,7 +663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D014696-F4C8-46A2-8DF4-1534A25B8AAF}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -810,7 +705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA8D8FC-6B9D-4339-A1FE-3243E11D23C6}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -852,7 +747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA5C2E0-96B1-4D86-982D-78A84E0CCBDE}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -894,12 +789,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD924863-122E-47BA-8C4E-323C8C783498}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50E8CF4-35C5-4BF1-AC6D-AF243A9A3302}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,7 +812,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -928,46 +823,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6314E427-CC55-4814-9BFB-A74C7885A378}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7C3712-0888-4065-8CC6-22C1C4947FF1}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A84FE15-F0CA-4341-A674-82EF94C06E03}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -985,501 +846,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1244C8B4-73A2-4FE3-BCA2-C79217B382A8}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7C3712-0888-4065-8CC6-22C1C4947FF1}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326BFFB5-857A-4072-80F1-3DFA3CB8C779}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A098B77D-545B-45EA-93AA-35E3E4DC9C4A}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF5BCE7-5C3B-402A-A5B8-5058F733D7A3}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AC8167-B17F-434B-A2AA-F98B9930BCDC}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093BE52F-7B00-4AA8-833A-7DEDC577101A}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56543CD5-6235-4840-9521-7C6DCB2F0BA5}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F57EBB5-D949-454E-8B1C-EC14B9F7DDB3}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F777B-C1C7-4B56-8BEB-D98D42D869FA}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C2D63B-E7C2-47B4-932B-5A10BB39DFB0}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
